--- a/SchedulingData/dynamic10/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_2.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>248.96</v>
+        <v>210.3</v>
       </c>
       <c r="D2" t="n">
-        <v>298.28</v>
+        <v>267.9</v>
       </c>
       <c r="E2" t="n">
-        <v>13.792</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>183.54</v>
+        <v>267.9</v>
       </c>
       <c r="D3" t="n">
-        <v>245.9</v>
+        <v>323.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15.92</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>201.04</v>
+        <v>236.46</v>
       </c>
       <c r="D4" t="n">
-        <v>292.2</v>
+        <v>280.88</v>
       </c>
       <c r="E4" t="n">
-        <v>12.94</v>
+        <v>13.052</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.02</v>
+        <v>209.02</v>
       </c>
       <c r="D5" t="n">
-        <v>255.26</v>
+        <v>261.62</v>
       </c>
       <c r="E5" t="n">
-        <v>12.184</v>
+        <v>15.488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>245.9</v>
+        <v>228.22</v>
       </c>
       <c r="D6" t="n">
-        <v>304.24</v>
+        <v>265.44</v>
       </c>
       <c r="E6" t="n">
-        <v>11.216</v>
+        <v>13.116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>215.6</v>
+        <v>323.1</v>
       </c>
       <c r="D7" t="n">
-        <v>285.9</v>
+        <v>394.24</v>
       </c>
       <c r="E7" t="n">
-        <v>13.04</v>
+        <v>9.856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>304.24</v>
+        <v>280.88</v>
       </c>
       <c r="D8" t="n">
-        <v>343.04</v>
+        <v>326.28</v>
       </c>
       <c r="E8" t="n">
-        <v>7.976</v>
+        <v>10.632</v>
       </c>
     </row>
     <row r="9">
@@ -599,150 +599,150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>292.2</v>
+        <v>326.28</v>
       </c>
       <c r="D9" t="n">
-        <v>350.12</v>
+        <v>378.68</v>
       </c>
       <c r="E9" t="n">
-        <v>9.747999999999999</v>
+        <v>7.992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>227.32</v>
+        <v>231.92</v>
       </c>
       <c r="D10" t="n">
-        <v>285.02</v>
+        <v>270.78</v>
       </c>
       <c r="E10" t="n">
-        <v>14.168</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>343.04</v>
+        <v>265.44</v>
       </c>
       <c r="D11" t="n">
-        <v>385.86</v>
+        <v>318.78</v>
       </c>
       <c r="E11" t="n">
-        <v>5.324</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>285.9</v>
+        <v>209.44</v>
       </c>
       <c r="D12" t="n">
-        <v>351.48</v>
+        <v>278.86</v>
       </c>
       <c r="E12" t="n">
-        <v>10.592</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>350.12</v>
+        <v>318.78</v>
       </c>
       <c r="D13" t="n">
-        <v>419.42</v>
+        <v>355.98</v>
       </c>
       <c r="E13" t="n">
-        <v>6.448</v>
+        <v>8.332000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>285.02</v>
+        <v>355.98</v>
       </c>
       <c r="D14" t="n">
-        <v>329.64</v>
+        <v>383.98</v>
       </c>
       <c r="E14" t="n">
-        <v>11.836</v>
+        <v>6.172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>351.48</v>
+        <v>261.62</v>
       </c>
       <c r="D15" t="n">
-        <v>390.86</v>
+        <v>301.02</v>
       </c>
       <c r="E15" t="n">
-        <v>7.784</v>
+        <v>12.688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>255.26</v>
+        <v>278.86</v>
       </c>
       <c r="D16" t="n">
-        <v>309.22</v>
+        <v>359.6</v>
       </c>
       <c r="E16" t="n">
-        <v>8.907999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -755,184 +755,184 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>309.22</v>
+        <v>301.02</v>
       </c>
       <c r="D17" t="n">
-        <v>385.18</v>
+        <v>352.18</v>
       </c>
       <c r="E17" t="n">
-        <v>6.412</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>298.28</v>
+        <v>270.78</v>
       </c>
       <c r="D18" t="n">
-        <v>331.18</v>
+        <v>324.48</v>
       </c>
       <c r="E18" t="n">
-        <v>11.632</v>
+        <v>8.372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>385.18</v>
+        <v>378.68</v>
       </c>
       <c r="D19" t="n">
-        <v>454.46</v>
+        <v>438.06</v>
       </c>
       <c r="E19" t="n">
-        <v>3.604</v>
+        <v>5.184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>390.86</v>
+        <v>438.06</v>
       </c>
       <c r="D20" t="n">
-        <v>428.08</v>
+        <v>473.84</v>
       </c>
       <c r="E20" t="n">
-        <v>5.192</v>
+        <v>2.736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>329.64</v>
+        <v>324.48</v>
       </c>
       <c r="D21" t="n">
-        <v>399.64</v>
+        <v>364</v>
       </c>
       <c r="E21" t="n">
-        <v>9.416</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>331.18</v>
+        <v>383.98</v>
       </c>
       <c r="D22" t="n">
-        <v>384.94</v>
+        <v>428.28</v>
       </c>
       <c r="E22" t="n">
-        <v>8.875999999999999</v>
+        <v>2.872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>384.94</v>
+        <v>352.18</v>
       </c>
       <c r="D23" t="n">
-        <v>432.14</v>
+        <v>397.04</v>
       </c>
       <c r="E23" t="n">
-        <v>6.756</v>
+        <v>7.816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>432.14</v>
+        <v>397.04</v>
       </c>
       <c r="D24" t="n">
-        <v>515.84</v>
+        <v>451.14</v>
       </c>
       <c r="E24" t="n">
-        <v>3.456</v>
+        <v>4.516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>385.86</v>
+        <v>359.6</v>
       </c>
       <c r="D25" t="n">
-        <v>442.12</v>
+        <v>423.58</v>
       </c>
       <c r="E25" t="n">
-        <v>2.308</v>
+        <v>6.492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>428.08</v>
+        <v>423.58</v>
       </c>
       <c r="D26" t="n">
-        <v>464.72</v>
+        <v>461.5</v>
       </c>
       <c r="E26" t="n">
-        <v>2.168</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>399.64</v>
+        <v>394.24</v>
       </c>
       <c r="D27" t="n">
-        <v>446.74</v>
+        <v>468.3</v>
       </c>
       <c r="E27" t="n">
-        <v>7.336</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>446.74</v>
+        <v>364</v>
       </c>
       <c r="D28" t="n">
-        <v>496.6</v>
+        <v>414.7</v>
       </c>
       <c r="E28" t="n">
-        <v>4.96</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
